--- a/Data/MainFile_ex.xlsx
+++ b/Data/MainFile_ex.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\WHATIF\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cowi-my.sharepoint.com/personal/rapy_cowi_com/Documents/WHATIF/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_30C222C94B07072767FCE756DE30354AB29C0289" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8D0B5A7A-7A2E-457D-9E1C-3CFFCE0FAD4E}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{59A98145-E6ED-4466-95B7-E5F69A046B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80CF15EF-4F1A-4147-99DE-6F559813DCF9}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="345" windowWidth="19185" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
     <sheet name="Options" sheetId="4" r:id="rId2"/>
     <sheet name="Scenarios" sheetId="20" r:id="rId3"/>
     <sheet name="Countries" sheetId="3" r:id="rId4"/>
-    <sheet name="Months" sheetId="1" r:id="rId5"/>
-    <sheet name="Activities" sheetId="21" r:id="rId6"/>
-    <sheet name="GrowthScenarios" sheetId="16" r:id="rId7"/>
+    <sheet name="Activities" sheetId="21" r:id="rId5"/>
+    <sheet name="Months" sheetId="1" r:id="rId6"/>
+    <sheet name="MonteCarlo" sheetId="23" r:id="rId7"/>
+    <sheet name="GrowthScenarios" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="276">
   <si>
     <t>units:</t>
   </si>
@@ -276,9 +279,6 @@
     <t>Power technologies</t>
   </si>
   <si>
-    <t>Percentage of the time where e-flows have to be satisfied (1=100%)</t>
-  </si>
-  <si>
     <t>Number of steps to linearize elastic demand</t>
   </si>
   <si>
@@ -324,9 +324,6 @@
     <t>#if data is scenario dependent leave blank otherwise</t>
   </si>
   <si>
-    <t>WHATIF_main</t>
-  </si>
-  <si>
     <t>REM: the list of parameters that can have a yearly</t>
   </si>
   <si>
@@ -360,66 +357,370 @@
     <t>Load</t>
   </si>
   <si>
-    <t>(1) Activate e-flow requierments, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Activate Lakes, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Activate groundwater aquifers, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Activate water transfer schemes, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Activates the agriculture module, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) represent demands, trades …, (0) Crop production is valuated at farm zones</t>
-  </si>
-  <si>
     <t>Share of demand that is elastic (-)</t>
   </si>
   <si>
-    <t>(1) Crop market that have an exogenous crop production capacity, trade like any other crop markets, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Food security constraints, forcing a minimum demand satisfaction (might be impossible if no external market is represented), (2) food sufficiency constraint - under development</t>
-  </si>
-  <si>
-    <t>(1) Energy production module, (0) Off</t>
-  </si>
-  <si>
-    <t>(1) Represent other power plants</t>
-  </si>
-  <si>
-    <t>(1) Fuel consumption of Other power plant or Power technologies</t>
-  </si>
-  <si>
-    <t>(1) Power capacity expansion model</t>
-  </si>
-  <si>
-    <t>(1) represent demands, trades …, (0) Energy production is valuated at hydropower plant</t>
-  </si>
-  <si>
-    <t>(1) Transmission lines between power markets</t>
-  </si>
-  <si>
-    <t>(1) Consider different load segments of the power demand (peak/base, day/night)</t>
-  </si>
-  <si>
-    <t>(1) Consider that some Opp or Power technologies have a limited capacity during some load segments (e.g. : Solar during night)</t>
-  </si>
-  <si>
-    <t>(1) Enables the model to add water in the water balances at a very high cost (DEBUGCOST defined in script)</t>
-  </si>
-  <si>
-    <t>(1) fixed head, (nonlinear) Head-Vol relationship as non linear equations, (miphead) Head-Vol relationship through mip</t>
-  </si>
-  <si>
     <t>Crop choice</t>
   </si>
   <si>
+    <t>nonlinear</t>
+  </si>
+  <si>
+    <t>Reservoir Target</t>
+  </si>
+  <si>
+    <t>WHATIF_main is (semi) hard coded and defines the scenario for the single run mode</t>
+  </si>
+  <si>
+    <t>sOptions is hard coded, all other scenario options can be changed by user</t>
+  </si>
+  <si>
+    <t>Average forecast</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Wakanda</t>
+  </si>
+  <si>
+    <t>average_grow</t>
+  </si>
+  <si>
+    <t>Model Predictive Control</t>
+  </si>
+  <si>
+    <t>noption</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>TimeMonthYear</t>
+  </si>
+  <si>
+    <t>1#jan#2020</t>
+  </si>
+  <si>
+    <t>Discount rate</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>This does not imply that January is the first month of the Year (or Hydrological Year) what matters is the reference set in Options, TimeMonthYear</t>
+  </si>
+  <si>
+    <t>#Ordered Months</t>
+  </si>
+  <si>
+    <t>nmonthorder</t>
+  </si>
+  <si>
+    <t>monthorder</t>
+  </si>
+  <si>
+    <t>REM: Optional</t>
+  </si>
+  <si>
+    <t>#Area - rem: optional</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>Ensemble Class Cuts</t>
+  </si>
+  <si>
+    <t>Objective_coef</t>
+  </si>
+  <si>
+    <t>KckY farmtype</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Description of activities</t>
+  </si>
+  <si>
+    <t>i.e also land or crops are consumed/produced every month</t>
+  </si>
+  <si>
+    <t>but only accounted at the yearly scale in the crop and land balance</t>
+  </si>
+  <si>
+    <t>#country</t>
+  </si>
+  <si>
+    <t>#catchment</t>
+  </si>
+  <si>
+    <t>#power market</t>
+  </si>
+  <si>
+    <t>#farmingzone</t>
+  </si>
+  <si>
+    <t>#crop market</t>
+  </si>
+  <si>
+    <t>#crop in</t>
+  </si>
+  <si>
+    <t>#crop out</t>
+  </si>
+  <si>
+    <t>#activity that needs to be carrid at the same time</t>
+  </si>
+  <si>
+    <t># binary: 1 production is constant through year, 0 production can vary by month</t>
+  </si>
+  <si>
+    <t>#capacity</t>
+  </si>
+  <si>
+    <t>#minimum production that should be achieved</t>
+  </si>
+  <si>
+    <t>#production cost (positive) or value (negative)</t>
+  </si>
+  <si>
+    <t>#land</t>
+  </si>
+  <si>
+    <t>#Water</t>
+  </si>
+  <si>
+    <t>#power</t>
+  </si>
+  <si>
+    <t>#crops</t>
+  </si>
+  <si>
+    <t>unit/month</t>
+  </si>
+  <si>
+    <t>M$/unit</t>
+  </si>
+  <si>
+    <t>1000ha/unit</t>
+  </si>
+  <si>
+    <t>Mm³/unit</t>
+  </si>
+  <si>
+    <t>GWh/unit</t>
+  </si>
+  <si>
+    <t>1000t/unit</t>
+  </si>
+  <si>
+    <t>njactivity</t>
+  </si>
+  <si>
+    <t>j_country</t>
+  </si>
+  <si>
+    <t>j_catch</t>
+  </si>
+  <si>
+    <t>j_pmarket</t>
+  </si>
+  <si>
+    <t>j_fzone</t>
+  </si>
+  <si>
+    <t>j_cmarket</t>
+  </si>
+  <si>
+    <t>j_cropin</t>
+  </si>
+  <si>
+    <t>j_cropout</t>
+  </si>
+  <si>
+    <t>j_simultaneous</t>
+  </si>
+  <si>
+    <t>j_constant</t>
+  </si>
+  <si>
+    <t>jProdCap</t>
+  </si>
+  <si>
+    <t>jProdMin</t>
+  </si>
+  <si>
+    <t>jProdCost</t>
+  </si>
+  <si>
+    <t>jLandCons</t>
+  </si>
+  <si>
+    <t>jLandProd</t>
+  </si>
+  <si>
+    <t>jWatCons</t>
+  </si>
+  <si>
+    <t>jWatProd</t>
+  </si>
+  <si>
+    <t>jPowCons</t>
+  </si>
+  <si>
+    <t>jPowProd</t>
+  </si>
+  <si>
+    <t>jCropCons</t>
+  </si>
+  <si>
+    <t>jCropProd</t>
+  </si>
+  <si>
+    <t>Biofuels</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>yearA</t>
+  </si>
+  <si>
+    <t>yearB</t>
+  </si>
+  <si>
+    <t>yearC</t>
+  </si>
+  <si>
+    <t>PowerMarket</t>
+  </si>
+  <si>
+    <t>WakandaMarket</t>
+  </si>
+  <si>
+    <t>Ramping</t>
+  </si>
+  <si>
+    <t>sRefScen</t>
+  </si>
+  <si>
+    <t>sRefScen is semi-hard coded for WHATIF_scenario, provide reference scenario or leave blank</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>linearized</t>
+  </si>
+  <si>
+    <t>Desalinization</t>
+  </si>
+  <si>
+    <t>Upstream</t>
+  </si>
+  <si>
+    <t>sCO2tax</t>
+  </si>
+  <si>
+    <t>sYields</t>
+  </si>
+  <si>
+    <t>sEnergyDem</t>
+  </si>
+  <si>
+    <t>sCropDem</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Montecarlo</t>
+  </si>
+  <si>
+    <t>nsampling</t>
+  </si>
+  <si>
+    <t>nsamplingopt</t>
+  </si>
+  <si>
+    <t>mParameter</t>
+  </si>
+  <si>
+    <t>mValue</t>
+  </si>
+  <si>
+    <t>MonteCarlo</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>sEnvFlow</t>
+  </si>
+  <si>
+    <t>sClimate</t>
+  </si>
+  <si>
+    <t>https://github.com/RaphaelPB/WHAT-IF/wiki/Creating%2C-running-and-comparing-scenarios</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <sz val="9"/>
@@ -436,7 +737,584 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Crop choice is a free DV for every year, </t>
+      <t>= Enables the model to add water in the water balances at a very high cost (DEBUGCOST defined in script)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial time step </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Initial storage conditions (requieres defining initial storage in Reservoirs) or  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = cyclic model Last time step connects back to first</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Input the format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a#b#c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is a time step (number) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is the corresponding month (first month of hydrologic year) and - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is the corresponding (hydrologic) year (number)- all the rest will be deducted from this</t>
+    </r>
+  </si>
+  <si>
+    <t>first time step to run (number)</t>
+  </si>
+  <si>
+    <t>last time step to run (number)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = predefined parameters can evolve with time, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = parameters are fixed through years. See "GrowthScenarios" sheet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (anyvalue)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> flood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Flood rule curve is defined in "WaterModule" file "FloodRuleCurve" sheet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">= e-flow constraints can be defined in the Water module, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = no e-flow applies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Activate Lakes, non-controlled reservoirs can be defined in the Water module</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = groundwater aquifers can be defined in Water module</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = transfer schemes (artificial canals) can be defined  in Water module</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = turn off entire agriculture module</t>
+    </r>
+  </si>
+  <si>
+    <t>(can not be turned off)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Leave blank), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Kc and kY are at the resolution of the farmtype</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>nonlinear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,  FAO 33 additive yield water response function</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">= Crop choice is a free decision variable for every year, </t>
     </r>
     <r>
       <rPr>
@@ -454,7 +1332,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Constraints crop choice by a maximum area per farming zone and per culture, </t>
+      <t xml:space="preserve">  = Constraints crop choice by a maximum area per farming zone and per culture, </t>
     </r>
     <r>
       <rPr>
@@ -472,7 +1350,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> the crop choice is a parameter, WARNING: it can lead to negative yields if combined with the linear yield water response option, </t>
+      <t xml:space="preserve"> = the crop choice is a fixed parameter (warning, can lead to infeasibility),  </t>
     </r>
     <r>
       <rPr>
@@ -490,7 +1368,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> One crop choice for the entire Planning period, </t>
+      <t xml:space="preserve"> = One crop choice for the entire Planning period, </t>
     </r>
     <r>
       <rPr>
@@ -508,93 +1386,1173 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> once + max</t>
-    </r>
-  </si>
-  <si>
-    <t>(linearized) Linearized yield water response using FAO 33, (nonlinear) Non linearized FAO 33</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>flood</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Flood rule curve is active</t>
-    </r>
-  </si>
-  <si>
-    <t>flood</t>
-  </si>
-  <si>
-    <t>nonlinear</t>
-  </si>
-  <si>
-    <t>Reservoir Target</t>
-  </si>
-  <si>
-    <t>WHATIF_main is (semi) hard coded and defines the scenario for the single run mode</t>
-  </si>
-  <si>
-    <t>sOptions is hard coded, all other scenario options can be changed by user</t>
-  </si>
-  <si>
-    <t>0: Perfect foresight, 'a#b#c': a prediction horizon in years, b perfect forecast horizon (1=only current time step is known), c number of ensemble forecasts, add: #w and it will not sample the forecasts but use the c nearest neighbors and then weight the solutions, add #b: and it will create an ensemble block model with all ensemble forecasts sharing only the DV of first time step</t>
-  </si>
-  <si>
-    <t>(Active in MPC framework) float: Target for reservoir storage at end of prediction horizon (option*Initial Storage), 'shadowx': use shadowprices (based on perfect foresight run) for reservoir water value at end of prediction horizon (no hard target), x is a multiplicative factor e.g. 'shadow1.1' to take into account that perfect foresight shadowprices might be lower than real, if ommited ('shadow') the model assumes x=1</t>
-  </si>
-  <si>
-    <t>Average forecast</t>
-  </si>
-  <si>
-    <t>Stationary</t>
-  </si>
-  <si>
-    <t>options1</t>
-  </si>
-  <si>
-    <t>options2</t>
-  </si>
-  <si>
-    <t>Wakanda</t>
-  </si>
-  <si>
-    <t>average_grow</t>
-  </si>
-  <si>
-    <t>Model Predictive Control</t>
-  </si>
-  <si>
-    <t>noption</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>TimeMonthYear</t>
-  </si>
-  <si>
-    <t>1#jan#2020</t>
-  </si>
-  <si>
-    <t>Initial time step (1) = Initial storage conditions or  (0) = cyclic model Last time step connects back to first</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> = once + max</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = turn off agriculture markets and crop are valuated at farm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">= demand is at fix price and limited at intercept demand,  elasticity of own-price crop demand: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>linearized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = will generate step demand function with aStepLen and aNumStep, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>nonlinear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Continuous - need nonlinear solver </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = can define crop markets that have an exogenous crop supply and demand (e.g. world market), trade like any other crop markets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, normal supply-demand equilibrium, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Food security constraints can be represented, forcing a minimum demand satisfaction (might be impossible if no external market is represented),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = turn off energy module</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, fixed reservoir heads, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>nonlinear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Head-Vol relationship as non linear equations (needs nonlinear solver)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = turn off other power plants</t>
+    </r>
+  </si>
+  <si>
+    <t>under devlopment (1) takes into account cooling constraints - (0) no cooling constraints</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =  Fuel consumption of Other power plant or Power technologies is not represented (include in marginal cost instead)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = a capacity expansion model represents the investments in generic power technologies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = turn off energy markets, hydropower production is valuated at plant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = turn off trade between energy markets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>= Consider different load segments of the power demand (peak/base, day/night)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Consider that some Opp or Power technologies have a limited capacity during some load segments (e.g. : Solar during night)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(float 0 t 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Target for reservoir storage at end of prediction horizon (option*Initial Storage), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>shadowx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = use shadowprices (based on perfect foresight run) for reservoir water value at end of prediction horizon (no hard target), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is a multiplicative factor e.g. 'shadow1.1' to take into account that perfect foresight shadowprices might be lower than real, if ommited ('shadow') the model assumes x=1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Horizon (in months) at which climatology is used instead of forecast in MPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Last time steps (in months) that are optimized with perfect foresight, to generate stable end conditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = turn off trade between crop markets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , (0 to 1) = Percentage of the time where e-flows have to be satisfied (1=100%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">default </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = can define activities consumming and producing land, water, power, and crops that connect catchments, farming zones, power markets, and crop markets . (not yet compatible with MPC)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Investment planning module - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = binary investments -requires MIP solver- otherwise will behave like continuous, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>continuous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = continuous investments (e.g. 33% of project)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Discount rate (%), for example 5 = 5%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Perfect foresight, </t>
+    </r>
     <r>
       <rPr>
         <sz val="9"/>
@@ -611,164 +2569,345 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - where </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is a time step (number) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the corresponding month (first month of hydrologic year) and - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the corresponding (hydrologic) year (number)- all the rest will be deducted from this</t>
-    </r>
-  </si>
-  <si>
-    <t>Discount rate</t>
-  </si>
-  <si>
-    <t>Months</t>
-  </si>
-  <si>
-    <t>Enables to name the months (or weeks?) - same name should appear in user water demand, and various crop data</t>
-  </si>
-  <si>
-    <t>This does not imply that January is the first month of the Year (or Hydrological Year) what matters is the reference set in Options, TimeMonthYear</t>
-  </si>
-  <si>
-    <t>#Ordered Months</t>
-  </si>
-  <si>
-    <t>nmonthorder</t>
-  </si>
-  <si>
-    <t>monthorder</t>
-  </si>
-  <si>
-    <t>REM: Optional</t>
-  </si>
-  <si>
-    <t>#Area - rem: optional</t>
-  </si>
-  <si>
-    <t>Rem: list countries - parameter COuntryArea not used</t>
-  </si>
-  <si>
-    <t>id of first time step to run</t>
-  </si>
-  <si>
-    <t>id of last time step to run</t>
-  </si>
-  <si>
-    <r>
-      <t>elasticity of own-price crop demand: (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>linearized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>) will generate step demand function with aStepLen and aNumStep, (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>nonlinear</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>) Continuous - need nonlinear solver (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>) Off - demand is at fix price and limited at intercept demand</t>
-    </r>
-  </si>
-  <si>
-    <t>Discount rate (%) only active in Investment module</t>
-  </si>
-  <si>
-    <r>
-      <t>Investment planning module - (</t>
+      <t xml:space="preserve"> = a prediction horizon in years, b perfect forecast horizon (1=only current time step is known), c number of ensemble forecasts, add: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>#w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = it will not sample the forecasts but use the c nearest neighbors and then weight the solutions (not recommendable), add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">#bm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #bw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">= it will create an ensemble block model with all ensemble forecasts sharing only the decision variables of first time step (bm = solves for maxmin of scenario, bw= solves for weighted average), add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">#ec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>and it will create a block model with ensemble forecasts that are grouped according to the Ensemble Class Cuts option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(leave blank)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = assumes hydrology is stationary and MPC framework uses entire available time serie for forecasts and shadowprices, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>a#b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = uses the past a years for climatology and shadowprices, updates the value of shadowprices every b years</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(leave blank)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>p1#p2#p3#pn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = When using a#b#c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>#ec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in MPC option, defines the cuts generating the weighted ensemble forecasts, e.g. 33#66#100 will merge the c forecasts into 3 groups based on percentiles in runoff, 50#100 will merge c forecasts in high and low flow forecast</t>
+    </r>
+  </si>
+  <si>
+    <t>See publication on MPC: https://doi.org/10.1002/essoar.10504115.1 (WARNING: The options contain a few features under development - probably only usable by an "insider")</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Leave blank)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 1#1#1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">a#b#c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>= Enables to twist the objective function by multiplying objective function for water system by a, power system by b, agriculture by c (warning this will bias shadow prices)</t>
+    </r>
+  </si>
+  <si>
+    <t>under developement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(leave blank)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 1, Frequency (month) at which the MPC algorithm is solved - by default it is set to 1 (every month) - should be inferior or equal to the perfect foresight parameter (b) in MPC option (e.g. 12 will solve the model year by year with a year perfect forecast)</t>
+    </r>
+  </si>
+  <si>
+    <t>shadow1</t>
+  </si>
+  <si>
+    <t>Check documentation on how to create scenarios on data</t>
+  </si>
+  <si>
+    <t>The columns are to be defined by the user, the "s" prefix is recommended as no other model parameters use it (and is assumed in some specific features)</t>
+  </si>
+  <si>
+    <t>REM : Used only when using WHATIF_montecarlo.py - not part of the generic functionalities described in the user manual</t>
+  </si>
+  <si>
+    <t>Rem : CountryArea not used yet</t>
+  </si>
+  <si>
+    <t>Enables naming the months (or weeks?) - same name should appear in user water demand, and various crop data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Activities need to be activated in the options by setting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Activities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
     </r>
     <r>
       <rPr>
@@ -779,267 +2918,36 @@
       </rPr>
       <t>1</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>) binary investments -requires MIP solver- otherwise will behave like continuous-  (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>continuous</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>) continuous investments (e.g. 33% of project)</t>
-    </r>
-  </si>
-  <si>
-    <t>Horizon (in months) at which climatology is used instead of forecast in MPC</t>
-  </si>
-  <si>
-    <t>Buffer</t>
-  </si>
-  <si>
-    <t>Last time steps (in months) that are optimized with perfect foresight, to generate stable end conditions</t>
-  </si>
-  <si>
-    <t>Ensemble Class Cuts</t>
-  </si>
-  <si>
-    <t>When using #ec in MPC, defines the cuts generating the weighted ensemble forecasts</t>
-  </si>
-  <si>
-    <t>(1) assumes hydrology is stationary and MPC framework uses entire available time serie for forecasts and shadowprices, (a#b): uses the past a years for climatology and shadowprices, updates the value of shadowprices every b years</t>
-  </si>
-  <si>
-    <t>See publication on MPC</t>
-  </si>
-  <si>
-    <t>Objective_coef</t>
-  </si>
-  <si>
-    <t>(Leave blank): does nothing, (a#b#c): Enables to twist the objective function by multiplying objective function for water system by a, power system by b, agriculture by c</t>
-  </si>
-  <si>
-    <t>Parameters are subject to a yearly growth rate (1), demands are fixed (0)</t>
-  </si>
-  <si>
-    <t>KckY farmtype</t>
-  </si>
-  <si>
-    <t>(1) Kc and kY are at the resolution of the farmtype</t>
-  </si>
-  <si>
-    <t>Activities</t>
-  </si>
-  <si>
-    <t>Description of activities</t>
-  </si>
-  <si>
-    <t>REM: at monthly time scale</t>
-  </si>
-  <si>
-    <t>i.e also land or crops are consumed/produced every month</t>
-  </si>
-  <si>
-    <t>but only accounted at the yearly scale in the crop and land balance</t>
-  </si>
-  <si>
-    <t>#country</t>
-  </si>
-  <si>
-    <t>#catchment</t>
-  </si>
-  <si>
-    <t>#power market</t>
-  </si>
-  <si>
-    <t>#farmingzone</t>
-  </si>
-  <si>
-    <t>#crop market</t>
-  </si>
-  <si>
-    <t>#crop in</t>
-  </si>
-  <si>
-    <t>#crop out</t>
-  </si>
-  <si>
-    <t>#activity that needs to be carrid at the same time</t>
-  </si>
-  <si>
-    <t># binary: 1 production is constant through year, 0 production can vary by month</t>
-  </si>
-  <si>
-    <t>#capacity</t>
-  </si>
-  <si>
-    <t>#minimum production that should be achieved</t>
-  </si>
-  <si>
-    <t>#production cost (positive) or value (negative)</t>
-  </si>
-  <si>
-    <t>#production value</t>
-  </si>
-  <si>
-    <t>#land</t>
-  </si>
-  <si>
-    <t>#Water</t>
-  </si>
-  <si>
-    <t>#power</t>
-  </si>
-  <si>
-    <t>#crops</t>
-  </si>
-  <si>
-    <t>unit/month</t>
-  </si>
-  <si>
-    <t>M$/unit</t>
-  </si>
-  <si>
-    <t>1000ha/unit</t>
-  </si>
-  <si>
-    <t>Mm³/unit</t>
-  </si>
-  <si>
-    <t>GWh/unit</t>
-  </si>
-  <si>
-    <t>1000t/unit</t>
-  </si>
-  <si>
-    <t>njactivity</t>
-  </si>
-  <si>
-    <t>j_country</t>
-  </si>
-  <si>
-    <t>j_catch</t>
-  </si>
-  <si>
-    <t>j_pmarket</t>
-  </si>
-  <si>
-    <t>j_fzone</t>
-  </si>
-  <si>
-    <t>j_cmarket</t>
-  </si>
-  <si>
-    <t>j_cropin</t>
-  </si>
-  <si>
-    <t>j_cropout</t>
-  </si>
-  <si>
-    <t>j_simultaneous</t>
-  </si>
-  <si>
-    <t>j_constant</t>
-  </si>
-  <si>
-    <t>jProdCap</t>
-  </si>
-  <si>
-    <t>jProdMin</t>
-  </si>
-  <si>
-    <t>jProdCost</t>
-  </si>
-  <si>
-    <t>jProdVal</t>
-  </si>
-  <si>
-    <t>jLandCons</t>
-  </si>
-  <si>
-    <t>jLandProd</t>
-  </si>
-  <si>
-    <t>jWatCons</t>
-  </si>
-  <si>
-    <t>jWatProd</t>
-  </si>
-  <si>
-    <t>jPowCons</t>
-  </si>
-  <si>
-    <t>jPowProd</t>
-  </si>
-  <si>
-    <t>jCropCons</t>
-  </si>
-  <si>
-    <t>jCropProd</t>
-  </si>
-  <si>
-    <t>Biofuels</t>
-  </si>
-  <si>
-    <t>maize</t>
-  </si>
-  <si>
-    <t>Activities can connect catchments, farming zones, power markets, and crop markets through activities consumming and producing land, water, power, and crops.</t>
-  </si>
-  <si>
-    <t>yearA</t>
-  </si>
-  <si>
-    <t>yearB</t>
-  </si>
-  <si>
-    <t>yearC</t>
-  </si>
-  <si>
-    <t>PowerMarket</t>
-  </si>
-  <si>
-    <t>WakandaMarket</t>
-  </si>
-  <si>
-    <t>Ramping</t>
-  </si>
-  <si>
-    <t>under devlopement</t>
-  </si>
-  <si>
-    <t>sRefScen</t>
-  </si>
-  <si>
-    <t>sRefScen is semi-hard coded for WHATIF_scenario, provide reference scenario or leave blank</t>
-  </si>
-  <si>
-    <t>mpc</t>
-  </si>
-  <si>
-    <t>2#1#20#ec</t>
-  </si>
-  <si>
-    <t>shadow1.0</t>
-  </si>
-  <si>
-    <t>50#100</t>
+  </si>
+  <si>
+    <t>Activities are user defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REM: at monthly time scale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of countries for post-processing results and aggregate by country </t>
+  </si>
+  <si>
+    <t>All country names used in other parameters sheet must be listed here</t>
+  </si>
+  <si>
+    <t>Including e.g. "world" if a world crop market with "world" for its country is defined</t>
+  </si>
+  <si>
+    <t>Geographical parameters connect catchments (for water), power markets (for power), crop markets (crops)</t>
+  </si>
+  <si>
+    <t>If an activity does not neither produce nor consumme a commodity the corresponding geographical node does not need to be defined</t>
+  </si>
+  <si>
+    <t>Production and consumption factors reflect how an activity produces or consumes commodities</t>
+  </si>
+  <si>
+    <t>Under development</t>
+  </si>
+  <si>
+    <t>SSP2Xbase</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +2957,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1117,8 +3025,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1169,18 +3130,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8ADCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1288,12 +3267,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1446,7 +3506,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,9 +3515,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1469,22 +3525,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1736,7 +3830,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1787,7 +3881,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>54</v>
@@ -1868,7 +3962,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1908,7 +4002,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="C10" s="86">
         <v>21</v>
@@ -1944,7 +4038,28 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
+      <c r="A12" s="69">
+        <v>6</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="69">
+        <v>21</v>
+      </c>
+      <c r="D12" s="69">
+        <v>2</v>
+      </c>
+      <c r="E12" s="69">
+        <v>1</v>
+      </c>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1953,797 +4068,568 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="60.75" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="52.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="52.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="AA5">
+      <c r="U5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:27" ht="22.5" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="C7" s="82">
         <v>0</v>
       </c>
-      <c r="D7" s="82">
-        <v>1</v>
-      </c>
-      <c r="E7" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:21" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="C8" s="79">
         <v>0</v>
       </c>
-      <c r="D8" s="79">
-        <v>1</v>
-      </c>
-      <c r="E8" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:21" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="C10" s="79">
         <v>1</v>
       </c>
-      <c r="D10" s="79">
-        <v>1</v>
-      </c>
-      <c r="E10" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="C11" s="80">
-        <v>24</v>
-      </c>
-      <c r="D11" s="80">
-        <v>24</v>
-      </c>
-      <c r="E11" s="80">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="86" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="86" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A12" s="73" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C12" s="81">
-        <v>0</v>
-      </c>
-      <c r="D12" s="81">
-        <v>0</v>
-      </c>
-      <c r="E12" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="86" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-    </row>
-    <row r="14" spans="1:27" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="81">
-        <v>0</v>
-      </c>
-      <c r="D14" s="81">
-        <v>0</v>
-      </c>
-      <c r="E14" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B14" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="C15" s="79">
         <v>1</v>
       </c>
-      <c r="D15" s="79">
+    </row>
+    <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="79">
         <v>1</v>
       </c>
-      <c r="E15" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>107</v>
+        <v>69</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="C17" s="79">
         <v>1</v>
       </c>
-      <c r="D17" s="79">
-        <v>1</v>
-      </c>
-      <c r="E17" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="C18" s="79">
-        <v>1</v>
-      </c>
-      <c r="D18" s="79">
-        <v>1</v>
-      </c>
-      <c r="E18" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="C19" s="79">
         <v>0</v>
       </c>
-      <c r="D19" s="79">
+    </row>
+    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="121" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="80">
         <v>0</v>
       </c>
-      <c r="E19" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="79">
-        <v>0</v>
-      </c>
-      <c r="D20" s="79">
-        <v>0</v>
-      </c>
-      <c r="E20" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="80">
-        <v>0</v>
-      </c>
-      <c r="D21" s="80">
-        <v>0</v>
-      </c>
-      <c r="E21" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="79">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="79">
         <v>1</v>
       </c>
-      <c r="D22" s="79">
+    </row>
+    <row r="22" spans="1:3" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="79"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="79">
         <v>1</v>
       </c>
-      <c r="E22" s="79">
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.15">
+      <c r="A26" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="79">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="79">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-    </row>
-    <row r="24" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="80" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="79">
-        <v>1</v>
-      </c>
-      <c r="D26" s="79">
-        <v>0</v>
-      </c>
-      <c r="E26" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="79">
-        <v>0</v>
-      </c>
-      <c r="D27" s="79">
-        <v>0</v>
-      </c>
-      <c r="E27" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="79">
-        <v>0.05</v>
-      </c>
-      <c r="D28" s="79">
-        <v>0.05</v>
-      </c>
-      <c r="E28" s="79">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="79">
-        <v>4</v>
-      </c>
-      <c r="D29" s="79">
-        <v>4</v>
-      </c>
-      <c r="E29" s="79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>114</v>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>247</v>
       </c>
       <c r="C30" s="79">
         <v>1</v>
       </c>
-      <c r="D30" s="79">
+    </row>
+    <row r="31" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="80">
         <v>0</v>
       </c>
-      <c r="E30" s="79">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="79">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="79">
-        <v>1</v>
-      </c>
-      <c r="D31" s="79">
-        <v>0</v>
-      </c>
-      <c r="E31" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A32" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="80">
-        <v>1</v>
-      </c>
-      <c r="D32" s="80">
-        <v>0</v>
-      </c>
-      <c r="E32" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="32" t="s">
-        <v>63</v>
+    <row r="33" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="C33" s="79">
         <v>1</v>
       </c>
-      <c r="D33" s="79">
-        <v>1</v>
-      </c>
-      <c r="E33" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>125</v>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
       </c>
-      <c r="D34" s="79">
-        <v>1</v>
-      </c>
-      <c r="E34" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>117</v>
+    </row>
+    <row r="35" spans="1:3" s="86" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="123" t="s">
+        <v>237</v>
       </c>
       <c r="C35" s="79">
-        <v>1</v>
-      </c>
-      <c r="D35" s="79">
-        <v>1</v>
-      </c>
-      <c r="E35" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A36" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="C36" s="79">
         <v>1</v>
       </c>
-      <c r="D36" s="79">
-        <v>1</v>
-      </c>
-      <c r="E36" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>119</v>
+      <c r="B37" s="35" t="s">
+        <v>239</v>
       </c>
       <c r="C37" s="80">
-        <v>1</v>
-      </c>
-      <c r="D37" s="80">
-        <v>1</v>
-      </c>
-      <c r="E37" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>120</v>
+      <c r="B38" s="124" t="s">
+        <v>240</v>
       </c>
       <c r="C38" s="79">
         <v>1</v>
       </c>
-      <c r="D38" s="79">
-        <v>1</v>
-      </c>
-      <c r="E38" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>241</v>
       </c>
       <c r="C39" s="79">
         <v>1</v>
       </c>
-      <c r="D39" s="79">
-        <v>1</v>
-      </c>
-      <c r="E39" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="106" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40" s="78" t="s">
-        <v>237</v>
+    </row>
+    <row r="40" spans="1:3" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="123" t="s">
+        <v>257</v>
       </c>
       <c r="C40" s="79">
-        <v>1</v>
-      </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-    </row>
-    <row r="41" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="C41" s="79">
         <v>1</v>
       </c>
-      <c r="D41" s="79">
-        <v>1</v>
-      </c>
-      <c r="E41" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A42" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="C42" s="79">
         <v>1</v>
       </c>
-      <c r="D42" s="79">
-        <v>1</v>
-      </c>
-      <c r="E42" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:3" s="86" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A43" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-    </row>
-    <row r="44" spans="1:5" ht="78.75" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="B43" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="82" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="86" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="78" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>251</v>
       </c>
       <c r="C44" s="79">
         <v>0</v>
       </c>
-      <c r="D44" s="79">
+    </row>
+    <row r="45" spans="1:3" s="86" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" s="81"/>
+    </row>
+    <row r="46" spans="1:3" s="86" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="82"/>
+    </row>
+    <row r="47" spans="1:3" ht="112.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="C47" s="79">
         <v>0</v>
       </c>
-      <c r="E44" s="79" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="79">
-        <v>0.8</v>
-      </c>
-      <c r="D45" s="79">
-        <v>0.8</v>
-      </c>
-      <c r="E45" s="79" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="86" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="79">
+    </row>
+    <row r="48" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="86" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="79">
         <v>0</v>
       </c>
-      <c r="D46" s="79">
+    </row>
+    <row r="50" spans="1:3" s="86" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="79">
         <v>0</v>
       </c>
-      <c r="E46" s="79">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="86" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="79">
-        <v>1</v>
-      </c>
-      <c r="D47" s="79">
-        <v>1</v>
-      </c>
-      <c r="E47" s="79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="86" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="86" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="95" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="82">
-        <v>1</v>
-      </c>
-      <c r="D50" s="82">
-        <v>0</v>
-      </c>
-      <c r="E50" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="79">
-        <v>5</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
+    </row>
+    <row r="51" spans="1:3" s="86" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="79"/>
+    </row>
+    <row r="52" spans="1:3" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A52" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="79"/>
+    </row>
+    <row r="53" spans="1:3" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A53" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="79"/>
+    </row>
+    <row r="54" spans="1:3" ht="44.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2751,27 +4637,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AX24"/>
+  <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="86" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="13" width="8.25" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="9.75" customWidth="1"/>
+    <col min="3" max="4" width="11.875" style="86" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="8" width="12.25" style="86" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="8.25" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
     <col min="17" max="17" width="10.75" customWidth="1"/>
     <col min="18" max="18" width="11.5" customWidth="1"/>
@@ -2793,16 +4679,16 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="83"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="84"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="2"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -2871,7 +4757,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="118"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -2956,7 +4842,9 @@
       <c r="AX5" s="4"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
+      <c r="A6" s="41" t="s">
+        <v>260</v>
+      </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -2965,7 +4853,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
@@ -3000,7 +4888,9 @@
       <c r="AX6" s="4"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="A7" s="120" t="s">
+        <v>213</v>
+      </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -3078,13 +4968,17 @@
       <c r="AX8" s="4"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="42" t="s">
+        <v>261</v>
+      </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="15"/>
       <c r="X9" s="4"/>
@@ -3117,13 +5011,13 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -3207,7 +5101,7 @@
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:50" s="86" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3347,7 +5241,7 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -3395,7 +5289,7 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A16" s="71" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -3403,8 +5297,8 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -3442,7 +5336,7 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A17" s="71" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3496,7 +5390,7 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="119"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -3594,11 +5488,11 @@
       <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D22" s="87"/>
       <c r="E22" s="87"/>
@@ -3611,7 +5505,6 @@
       <c r="L22" s="87"/>
       <c r="M22" s="87"/>
       <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
       <c r="P22" s="87"/>
       <c r="Q22" s="87"/>
       <c r="R22" s="87"/>
@@ -3637,14 +5530,14 @@
       <c r="AL22" s="87"/>
       <c r="AM22" s="87"/>
     </row>
-    <row r="23" spans="1:50" s="86" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="45" t="s">
-        <v>95</v>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A23" s="100" t="s">
+        <v>275</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="87"/>
+        <v>199</v>
+      </c>
+      <c r="C23" s="45"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="87"/>
@@ -3653,83 +5546,17 @@
       <c r="I23" s="87"/>
       <c r="J23" s="87"/>
       <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="87"/>
       <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="87"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="87"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="87"/>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" t="s">
-        <v>240</v>
-      </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="87"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="87"/>
-      <c r="AL24" s="87"/>
-      <c r="AM24" s="87"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{DC2F1DA5-53F4-4D5D-A123-F41CCE6062A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3738,7 +5565,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3791,7 +5618,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3803,6 +5630,9 @@
       <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="58"/>
@@ -3813,6 +5643,9 @@
       <c r="I7" s="62"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="58"/>
@@ -3823,6 +5656,9 @@
       <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="67" t="s">
+        <v>263</v>
+      </c>
       <c r="D9" s="51"/>
       <c r="E9" s="10"/>
       <c r="F9" s="55"/>
@@ -3937,14 +5773,14 @@
         <v>16</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
+        <v>127</v>
+      </c>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
@@ -3976,14 +5812,14 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B23">
         <v>100</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="90"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -3994,11 +5830,710 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012FC2EE-F6B6-4D10-99DF-B742DE4C5411}">
+  <dimension ref="A1:AB24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A2" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" s="84"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="AB6" s="86"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="AB7" s="86"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="AB8" s="86"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="AB9" s="86"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A13" s="129" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="129"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A14" s="127" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A15" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="84"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+    </row>
+    <row r="20" spans="1:21" ht="112.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="128" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" s="86"/>
+      <c r="P20" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="S20" s="86"/>
+      <c r="T20" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="U20" s="86"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q21" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="R21" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="S21" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="T21" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="U21" s="86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="130" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" s="130" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="130" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q22" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="S22" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="T22" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="U22" s="53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="86"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="99">
+        <v>0</v>
+      </c>
+      <c r="L23" s="129">
+        <v>0</v>
+      </c>
+      <c r="M23" s="86">
+        <v>0</v>
+      </c>
+      <c r="N23" s="97">
+        <v>0</v>
+      </c>
+      <c r="O23" s="86">
+        <v>0</v>
+      </c>
+      <c r="P23" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="86">
+        <v>0</v>
+      </c>
+      <c r="R23" s="86">
+        <v>0</v>
+      </c>
+      <c r="S23" s="86">
+        <v>15</v>
+      </c>
+      <c r="T23" s="86">
+        <v>1</v>
+      </c>
+      <c r="U23" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="99">
+        <v>0</v>
+      </c>
+      <c r="L24" s="129">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.25</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4008,7 +6543,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B1" s="86"/>
       <c r="F1" s="4"/>
@@ -4038,13 +6573,13 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="84" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A3" s="91" t="s">
-        <v>154</v>
+      <c r="A3" s="90" t="s">
+        <v>122</v>
       </c>
       <c r="B3" s="86"/>
     </row>
@@ -4053,7 +6588,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4066,14 +6601,14 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A7" s="92">
+      <c r="A7" s="91">
         <v>1</v>
       </c>
       <c r="B7" s="86" t="s">
@@ -4081,7 +6616,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A8" s="92">
+      <c r="A8" s="91">
         <v>2</v>
       </c>
       <c r="B8" s="86" t="s">
@@ -4089,7 +6624,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A9" s="92">
+      <c r="A9" s="91">
         <v>3</v>
       </c>
       <c r="B9" s="86" t="s">
@@ -4097,7 +6632,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A10" s="92">
+      <c r="A10" s="91">
         <v>4</v>
       </c>
       <c r="B10" s="86" t="s">
@@ -4105,7 +6640,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A11" s="92">
+      <c r="A11" s="91">
         <v>5</v>
       </c>
       <c r="B11" s="86" t="s">
@@ -4113,7 +6648,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A12" s="92">
+      <c r="A12" s="91">
         <v>6</v>
       </c>
       <c r="B12" s="86" t="s">
@@ -4121,7 +6656,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A13" s="92">
+      <c r="A13" s="91">
         <v>7</v>
       </c>
       <c r="B13" s="86" t="s">
@@ -4129,7 +6664,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A14" s="92">
+      <c r="A14" s="91">
         <v>8</v>
       </c>
       <c r="B14" s="86" t="s">
@@ -4137,7 +6672,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A15" s="92">
+      <c r="A15" s="91">
         <v>9</v>
       </c>
       <c r="B15" s="86" t="s">
@@ -4145,7 +6680,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A16" s="92">
+      <c r="A16" s="91">
         <v>10</v>
       </c>
       <c r="B16" s="86" t="s">
@@ -4153,7 +6688,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="92">
+      <c r="A17" s="91">
         <v>11</v>
       </c>
       <c r="B17" s="86" t="s">
@@ -4161,7 +6696,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="92">
+      <c r="A18" s="91">
         <v>12</v>
       </c>
       <c r="B18" s="86" t="s">
@@ -4239,732 +6774,6 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012FC2EE-F6B6-4D10-99DF-B742DE4C5411}">
-  <dimension ref="A1:V23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="84"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="86"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="86"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="84"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-    </row>
-    <row r="20" spans="1:22" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="I20" s="99" t="s">
-        <v>190</v>
-      </c>
-      <c r="J20" s="100" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" s="100" t="s">
-        <v>193</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="N20" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="O20" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="R20" s="86"/>
-      <c r="S20" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="T20" s="86"/>
-      <c r="U20" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="V20" s="86"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A21" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="L21" s="102" t="s">
-        <v>200</v>
-      </c>
-      <c r="M21" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="N21" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="O21" s="86" t="s">
-        <v>202</v>
-      </c>
-      <c r="P21" s="86" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q21" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="R21" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="S21" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="T21" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="U21" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="V21" s="86" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="I22" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="J22" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="L22" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="N22" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="P22" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q22" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="R22" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="S22" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="T22" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="U22" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="V22" s="53" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" s="86"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="86">
-        <v>50</v>
-      </c>
-      <c r="L23" s="102">
-        <v>0</v>
-      </c>
-      <c r="M23" s="86">
-        <v>-1</v>
-      </c>
-      <c r="N23" s="102">
-        <v>0</v>
-      </c>
-      <c r="O23" s="105">
-        <v>0</v>
-      </c>
-      <c r="P23" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="86">
-        <v>0</v>
-      </c>
-      <c r="R23" s="86">
-        <v>0</v>
-      </c>
-      <c r="S23" s="86">
-        <v>0</v>
-      </c>
-      <c r="T23" s="86">
-        <v>0</v>
-      </c>
-      <c r="U23" s="86">
-        <v>1</v>
-      </c>
-      <c r="V23" s="86">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4972,11 +6781,656 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C77AE4-9C7B-4F5D-9882-0AC94FC51DEC}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="103"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="106"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="126" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="109"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="110"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="109"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="110"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="109"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="110"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="109"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="110"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="109"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="110"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="109"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="110"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="109"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="110"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="109"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="110"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="109"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="110"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="109"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="110"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="109"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="110"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="109"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="111"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="113"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="114"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="117">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="87"/>
+      <c r="B24" s="86">
+        <v>2</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="87"/>
+      <c r="B25" s="86">
+        <v>3</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="117">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="117">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="87"/>
+      <c r="B27" s="86">
+        <v>2</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="87"/>
+      <c r="B28" s="86">
+        <v>3</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="117">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="117">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="86">
+        <v>2</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="86">
+        <v>3</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="117">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="117">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="87"/>
+      <c r="B33" s="86">
+        <v>2</v>
+      </c>
+      <c r="C33" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="87"/>
+      <c r="B34" s="86">
+        <v>3</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="117">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="86">
+        <v>1</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="117">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="86">
+        <v>2</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="86">
+        <v>3</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="117">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="86">
+        <v>1</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="117">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="86">
+        <v>2</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="86">
+        <v>3</v>
+      </c>
+      <c r="C40" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="117">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="86"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="86"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B43" s="86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4992,12 +7446,12 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -5030,8 +7484,8 @@
       <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="93" t="s">
-        <v>158</v>
+      <c r="A6" s="92" t="s">
+        <v>126</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -5075,7 +7529,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="71" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -5089,7 +7543,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5103,7 +7557,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
@@ -5117,7 +7571,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -5190,19 +7644,19 @@
     <row r="20" spans="1:9" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A20" s="86"/>
       <c r="B20" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="D20" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>92</v>
-      </c>
       <c r="E20" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="25"/>
     </row>
@@ -5219,30 +7673,30 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="69" t="s">
+      <c r="E22" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>89</v>
-      </c>
       <c r="G22" s="69" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="44" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -5257,7 +7711,7 @@
         <v>2030</v>
       </c>
       <c r="F23" s="86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="86">
         <v>2050</v>

--- a/Data/MainFile_ex.xlsx
+++ b/Data/MainFile_ex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cowi-my.sharepoint.com/personal/rapy_cowi_com/Documents/WHATIF/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\WHATIF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{59A98145-E6ED-4466-95B7-E5F69A046B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80CF15EF-4F1A-4147-99DE-6F559813DCF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A0BEEB-C3C5-43B2-9691-5CB732C073E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -3833,38 +3833,38 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="18.75" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>50</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="69">
         <v>6</v>
       </c>
@@ -4070,38 +4070,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="60.75" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="60.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="52.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>68</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>116</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>47</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" s="86" customFormat="1" ht="46" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>118</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>30</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>31</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="86" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" s="86" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
         <v>132</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="73" t="s">
         <v>84</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>62</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>42</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>59</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>69</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>100</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>81</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>60</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>101</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" s="86" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
         <v>131</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C22" s="79"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>48</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>106</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A25" s="75" t="s">
         <v>43</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="46" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>74</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>76</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>77</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>73</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77" t="s">
         <v>61</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>67</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>63</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>44</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>45</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="86" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" s="86" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" s="98" t="s">
         <v>209</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>46</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>78</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>64</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>102</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="98" t="s">
         <v>186</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>104</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>103</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="86" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" s="86" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A43" s="75" t="s">
         <v>66</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="86" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" s="86" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>120</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="86" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" s="86" customFormat="1" ht="46" x14ac:dyDescent="0.25">
       <c r="A45" s="75" t="s">
         <v>130</v>
       </c>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="C45" s="81"/>
     </row>
-    <row r="46" spans="1:3" s="86" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" s="86" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A46" s="75" t="s">
         <v>115</v>
       </c>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="C46" s="82"/>
     </row>
-    <row r="47" spans="1:3" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="115" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>99</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="s">
         <v>108</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="86" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" s="86" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>111</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="86" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" s="86" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>128</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="86" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" s="86" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>129</v>
       </c>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="C51" s="79"/>
     </row>
-    <row r="52" spans="1:3" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" s="86" customFormat="1" ht="46" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>112</v>
       </c>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="C52" s="79"/>
     </row>
-    <row r="53" spans="1:3" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" s="86" customFormat="1" ht="46" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>189</v>
       </c>
@@ -4626,8 +4626,8 @@
       </c>
       <c r="C53" s="79"/>
     </row>
-    <row r="54" spans="1:3" ht="44.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4639,41 +4639,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="4" width="11.875" style="86" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="8" width="12.25" style="86" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="8.25" customWidth="1"/>
-    <col min="14" max="14" width="11.125" customWidth="1"/>
-    <col min="15" max="15" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="3" max="4" width="11.90625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="8" width="12.26953125" style="86" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" customWidth="1"/>
+    <col min="13" max="13" width="8.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.08984375" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="11.125" customWidth="1"/>
-    <col min="20" max="20" width="11.25" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" customWidth="1"/>
+    <col min="19" max="19" width="11.08984375" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="11.375" customWidth="1"/>
-    <col min="23" max="23" width="12.875" customWidth="1"/>
-    <col min="24" max="24" width="14.25" customWidth="1"/>
-    <col min="25" max="25" width="11.75" customWidth="1"/>
-    <col min="26" max="26" width="10.625" customWidth="1"/>
-    <col min="27" max="27" width="12.75" customWidth="1"/>
-    <col min="28" max="28" width="12.5" customWidth="1"/>
+    <col min="22" max="22" width="11.36328125" customWidth="1"/>
+    <col min="23" max="23" width="12.90625" customWidth="1"/>
+    <col min="24" max="24" width="14.26953125" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" customWidth="1"/>
+    <col min="26" max="26" width="10.6328125" customWidth="1"/>
+    <col min="27" max="27" width="12.7265625" customWidth="1"/>
+    <col min="28" max="28" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="D1" s="83"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="AW2" s="4"/>
       <c r="AX2" s="4"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
@@ -4747,7 +4747,7 @@
       <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="AW4" s="4"/>
       <c r="AX4" s="4"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -4841,7 +4841,7 @@
       <c r="AW5" s="4"/>
       <c r="AX5" s="4"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>260</v>
       </c>
@@ -4887,7 +4887,7 @@
       <c r="AW6" s="4"/>
       <c r="AX6" s="4"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="120" t="s">
         <v>213</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="15"/>
@@ -4967,7 +4967,7 @@
       <c r="AW8" s="4"/>
       <c r="AX8" s="4"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>261</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="AW9" s="4"/>
       <c r="AX9" s="4"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -5055,7 +5055,7 @@
       <c r="AW10" s="4"/>
       <c r="AX10" s="4"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -5101,7 +5101,7 @@
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
     </row>
-    <row r="12" spans="1:50" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:50" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -5147,7 +5147,7 @@
       <c r="AW12" s="4"/>
       <c r="AX12" s="4"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -5193,7 +5193,7 @@
       <c r="AW13" s="4"/>
       <c r="AX13" s="4"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -5239,7 +5239,7 @@
       <c r="AW14" s="4"/>
       <c r="AX14" s="4"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>109</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>110</v>
       </c>
@@ -5334,7 +5334,7 @@
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="s">
         <v>188</v>
       </c>
@@ -5382,7 +5382,7 @@
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5428,7 +5428,7 @@
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -5457,7 +5457,7 @@
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Y20" s="4"/>
       <c r="Z20" s="47"/>
       <c r="AB20" s="4"/>
@@ -5484,7 +5484,7 @@
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
     </row>
-    <row r="22" spans="1:50" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="AL22" s="87"/>
       <c r="AM22" s="87"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>275</v>
       </c>
@@ -5568,29 +5568,29 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="10.75" customWidth="1"/>
-    <col min="14" max="14" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>37</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -5616,7 +5616,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="57"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>268</v>
       </c>
@@ -5629,7 +5629,7 @@
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>269</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="H7" s="61"/>
       <c r="I7" s="62"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>270</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="H8" s="55"/>
       <c r="I8" s="56"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>263</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="56"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -5677,7 +5677,7 @@
       <c r="H10" s="55"/>
       <c r="I10" s="56"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5688,7 +5688,7 @@
       <c r="H11" s="61"/>
       <c r="I11" s="62"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
@@ -5699,7 +5699,7 @@
       <c r="H12" s="63"/>
       <c r="I12" s="64"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -5710,7 +5710,7 @@
       <c r="H13" s="63"/>
       <c r="I13" s="64"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -5721,7 +5721,7 @@
       <c r="H14" s="55"/>
       <c r="I14" s="64"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -5732,7 +5732,7 @@
       <c r="H15" s="55"/>
       <c r="I15" s="64"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -5743,7 +5743,7 @@
       <c r="H16" s="55"/>
       <c r="I16" s="64"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
@@ -5754,7 +5754,7 @@
       <c r="H17" s="55"/>
       <c r="I17" s="56"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -5765,10 +5765,10 @@
       <c r="H18" s="19"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="G20" s="88"/>
       <c r="H20" s="88"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -5796,7 +5796,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>17</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>113</v>
       </c>
@@ -5837,17 +5837,17 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="83" t="s">
         <v>132</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="T1" s="86"/>
       <c r="U1" s="86"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
         <v>133</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="T2" s="86"/>
       <c r="U2" s="86"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="84"/>
       <c r="B3" s="86"/>
       <c r="C3" s="86"/>
@@ -5920,7 +5920,7 @@
       <c r="T3" s="86"/>
       <c r="U3" s="86"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>37</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="T4" s="86"/>
       <c r="U4" s="86"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>265</v>
       </c>
@@ -5972,7 +5972,7 @@
       <c r="T5" s="86"/>
       <c r="U5" s="86"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>266</v>
       </c>
@@ -5983,7 +5983,7 @@
       <c r="F6" s="95"/>
       <c r="AB6" s="86"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="F7" s="95"/>
       <c r="AB7" s="86"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="F8" s="95"/>
       <c r="AB8" s="86"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="F9" s="4"/>
       <c r="AB9" s="86"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="56"/>
@@ -6038,7 +6038,7 @@
       <c r="T10" s="86"/>
       <c r="U10" s="86"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="86"/>
       <c r="C11" s="86"/>
       <c r="D11" s="51"/>
@@ -6060,7 +6060,7 @@
       <c r="T11" s="86"/>
       <c r="U11" s="86"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="D12" s="56"/>
       <c r="E12" s="55"/>
@@ -6081,7 +6081,7 @@
       <c r="T12" s="86"/>
       <c r="U12" s="86"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="129" t="s">
         <v>274</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="T13" s="86"/>
       <c r="U13" s="86"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="127" t="s">
         <v>267</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="T14" s="86"/>
       <c r="U14" s="86"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>134</v>
       </c>
@@ -6153,7 +6153,7 @@
       <c r="T15" s="86"/>
       <c r="U15" s="86"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>135</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="T16" s="86"/>
       <c r="U16" s="86"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
@@ -6201,7 +6201,7 @@
       <c r="T17" s="86"/>
       <c r="U17" s="86"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -6224,7 +6224,7 @@
       <c r="T18" s="86"/>
       <c r="U18" s="86"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="86"/>
       <c r="C19" s="86"/>
@@ -6247,7 +6247,7 @@
       <c r="T19" s="86"/>
       <c r="U19" s="86"/>
     </row>
-    <row r="20" spans="1:21" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="126.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="U20" s="86"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="85" t="s">
         <v>0</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>158</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>179</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -6536,12 +6536,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="83" t="s">
         <v>121</v>
       </c>
@@ -6571,19 +6571,19 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
         <v>264</v>
       </c>
       <c r="B2" s="86"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="86"/>
     </row>
-    <row r="4" spans="1:29" ht="46.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -6593,13 +6593,13 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="86"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>124</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <v>1</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
         <v>2</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="91">
         <v>3</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
         <v>4</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
         <v>5</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
         <v>6</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
         <v>7</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>8</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
         <v>9</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>10</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>11</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>12</v>
       </c>
@@ -6703,76 +6703,76 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>
   </sheetData>
@@ -6788,14 +6788,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="101" t="s">
         <v>203</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="N1" s="69"/>
       <c r="O1" s="69"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>82</v>
       </c>
@@ -6833,7 +6833,7 @@
       <c r="N2" s="69"/>
       <c r="O2" s="69"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="103"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -6850,7 +6850,7 @@
       <c r="N3" s="69"/>
       <c r="O3" s="69"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
         <v>37</v>
       </c>
@@ -6869,7 +6869,7 @@
       <c r="N4" s="105"/>
       <c r="O4" s="106"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="107"/>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -6886,7 +6886,7 @@
       <c r="N5" s="108"/>
       <c r="O5" s="109"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="126" t="s">
         <v>262</v>
       </c>
@@ -6905,7 +6905,7 @@
       <c r="N6" s="108"/>
       <c r="O6" s="109"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="108"/>
       <c r="C7" s="108"/>
@@ -6922,7 +6922,7 @@
       <c r="N7" s="108"/>
       <c r="O7" s="109"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="69"/>
       <c r="C8" s="69"/>
@@ -6939,7 +6939,7 @@
       <c r="N8" s="69"/>
       <c r="O8" s="109"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="108"/>
       <c r="C9" s="108"/>
@@ -6956,7 +6956,7 @@
       <c r="N9" s="69"/>
       <c r="O9" s="109"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="108"/>
       <c r="C10" s="108"/>
@@ -6973,7 +6973,7 @@
       <c r="N10" s="108"/>
       <c r="O10" s="109"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="86"/>
       <c r="C11" s="108"/>
@@ -6990,7 +6990,7 @@
       <c r="N11" s="108"/>
       <c r="O11" s="109"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="86"/>
       <c r="C12" s="108"/>
@@ -7007,7 +7007,7 @@
       <c r="N12" s="108"/>
       <c r="O12" s="109"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="69"/>
       <c r="C13" s="108"/>
@@ -7024,7 +7024,7 @@
       <c r="N13" s="108"/>
       <c r="O13" s="109"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="110"/>
       <c r="B14" s="108"/>
       <c r="C14" s="108"/>
@@ -7041,7 +7041,7 @@
       <c r="N14" s="108"/>
       <c r="O14" s="109"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="108"/>
       <c r="C15" s="108"/>
@@ -7058,7 +7058,7 @@
       <c r="N15" s="108"/>
       <c r="O15" s="109"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="108"/>
       <c r="C16" s="108"/>
@@ -7075,7 +7075,7 @@
       <c r="N16" s="108"/>
       <c r="O16" s="109"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="108"/>
       <c r="C17" s="108"/>
@@ -7092,7 +7092,7 @@
       <c r="N17" s="108"/>
       <c r="O17" s="109"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
       <c r="B18" s="112"/>
       <c r="C18" s="112"/>
@@ -7109,7 +7109,7 @@
       <c r="N18" s="112"/>
       <c r="O18" s="113"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="114"/>
       <c r="B19" s="69"/>
       <c r="C19" s="69"/>
@@ -7126,7 +7126,7 @@
       <c r="N19" s="69"/>
       <c r="O19" s="69"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="69"/>
       <c r="B20" s="69"/>
       <c r="C20" s="69"/>
@@ -7143,7 +7143,7 @@
       <c r="N20" s="69"/>
       <c r="O20" s="69"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -7160,7 +7160,7 @@
       <c r="N21" s="69"/>
       <c r="O21" s="69"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>204</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="N22" s="69"/>
       <c r="O22" s="69"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="87" t="s">
         <v>211</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="87"/>
       <c r="B24" s="86">
         <v>2</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="87"/>
       <c r="B25" s="86">
         <v>3</v>
@@ -7223,7 +7223,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
         <v>212</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
       <c r="B27" s="86">
         <v>2</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="87"/>
       <c r="B28" s="86">
         <v>3</v>
@@ -7261,7 +7261,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>194</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="86">
         <v>2</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="86">
         <v>3</v>
@@ -7299,7 +7299,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
         <v>196</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="87"/>
       <c r="B33" s="86">
         <v>2</v>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="87"/>
       <c r="B34" s="86">
         <v>3</v>
@@ -7337,7 +7337,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>193</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="86">
         <v>2</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="86">
         <v>3</v>
@@ -7375,7 +7375,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>195</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="86">
         <v>2</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="86">
         <v>3</v>
       </c>
@@ -7411,13 +7411,13 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="86"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="86"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="86"/>
     </row>
   </sheetData>
@@ -7433,31 +7433,31 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
+    <col min="2" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>37</v>
       </c>
@@ -7472,7 +7472,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -7483,7 +7483,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="57"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
         <v>126</v>
       </c>
@@ -7496,7 +7496,7 @@
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="58"/>
@@ -7507,7 +7507,7 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="58"/>
@@ -7518,7 +7518,7 @@
       <c r="I8" s="69"/>
       <c r="J8" s="69"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="51"/>
       <c r="E9" s="69"/>
       <c r="F9" s="69"/>
@@ -7527,7 +7527,7 @@
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
         <v>94</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="I10" s="69"/>
       <c r="J10" s="69"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>98</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="I11" s="69"/>
       <c r="J11" s="69"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
         <v>96</v>
       </c>
@@ -7569,7 +7569,7 @@
       <c r="I12" s="69"/>
       <c r="J12" s="69"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
         <v>97</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="I13" s="69"/>
       <c r="J13" s="69"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -7595,7 +7595,7 @@
       <c r="I14" s="69"/>
       <c r="J14" s="69"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -7607,7 +7607,7 @@
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -7619,7 +7619,7 @@
       <c r="I16" s="69"/>
       <c r="J16" s="69"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
@@ -7630,7 +7630,7 @@
       <c r="H17" s="55"/>
       <c r="I17" s="56"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -7641,7 +7641,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
       <c r="B20" s="25" t="s">
         <v>89</v>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
       <c r="B21" s="86" t="s">
         <v>13</v>
@@ -7671,7 +7671,7 @@
       <c r="F21" s="86"/>
       <c r="G21" s="86"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>95</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>114</v>
       </c>
@@ -7717,21 +7717,21 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="44"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="44"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="44"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="44"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="44"/>
       <c r="H42" s="4"/>
     </row>
